--- a/interface/data/test_user_data7.xlsx
+++ b/interface/data/test_user_data7.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <name val="等线"/>
       <family val="2"/>
@@ -74,6 +74,14 @@
       <family val="2"/>
       <color rgb="FF9C5700"/>
       <sz val="11"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -98,7 +106,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
@@ -111,8 +119,9 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
@@ -131,14 +140,18 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
     <cellStyle builtinId="28" name="适中" xfId="1"/>
     <cellStyle name="常规 3" xfId="2"/>
     <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_" xfId="3"/>
     <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_ 2" xfId="4"/>
     <cellStyle name="常规 2" xfId="5"/>
+    <cellStyle builtinId="8" name="超链接" xfId="6"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
@@ -406,21 +419,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" width="34.21875"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="39"/>
+    <col customWidth="1" max="2" min="2" width="63.5546875"/>
     <col bestFit="1" customWidth="1" max="3" min="3" width="9"/>
     <col customWidth="1" max="4" min="4" width="15.44140625"/>
     <col bestFit="1" customWidth="1" max="5" min="5" width="40.33203125"/>
@@ -467,12 +480,12 @@
     <row customFormat="1" customHeight="1" ht="15.6" r="2" s="1">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>test_user_login_normal</t>
-        </is>
-      </c>
-      <c r="B2" s="7" t="inlineStr">
-        <is>
-          <t>http://115.28.108.130:5000/api/user/login/</t>
+          <t>test_01</t>
+        </is>
+      </c>
+      <c r="B2" s="8" t="inlineStr">
+        <is>
+          <t>https://weixinqa.haoduoke.cn/weshop/api/client?r=order/add</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
@@ -487,58 +500,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>{"name": "张三","password":"123456"}</t>
+          <t>{"r": "order/add",
+ "brandId": "1",
+ "buyType": "1",
+ "goodsId": "449",
+ "goodsNum": "1",
+ "optionId": "0",
+ "shopCode": "zongbu",
+ "specialCode": "",
+ "remark": "",
+ "addressId": "59",
+ "requestUrl": "/weshop/client/order/split?goodsId=449&amp;optionId=0&amp;goodsNum=1&amp;buyType=1&amp;brandId=1&amp;shopCode=zongbu",
+ "couponsArray": [],
+ "pointSelected": false,
+ "deliverySelected": "0"}</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>&lt;h1&gt;登录成功&lt;/h1&gt;</t>
+          <t>{"traceId":"5ff4e6ec76e6f2a05b54a12bcd5f68b6f1abb716","code":"200001","msg":"\u6267\u884c\u5f02\u5e38","redirecturl":null,"data":[],"traces":[{"name":"common\\Core::CacheTrace","input":{"url":"http:\/\/weixinqa.haoduoke.cn:80\/weshop\/api\/client?r=order\/add","time":"2019-07-19 11:50:16","action":"client\\controllers\\order\\Add","get":{"r":"order\/add"},"post":{"brandId":"1","buyType":"1","goodsId":"449","goodsNum":"1","optionId":"0","shopCode":"zongbu","specialCode":"","remark":"","addressId":"59","requestUrl":"\/weshop\/client\/order\/split?goodsId=449&amp;optionId=0&amp;goodsNum=1&amp;buyType=1&amp;brandId=1&amp;shopCode=zongbu","couponsArray":[],"pointSelected":false,"deliverySelected":"0"}},"output":{"code":"200001","msg":"\u6267\u884c\u5f02\u5e38","data":[],"totalProcessedTime":"207 ms","memoryPeakUsage":"5.9 MB"},"processedTime":"8 ms","memoryUsage":"226.8 KB"},{"name":"client\\models\\order\\AddForm::done","input":"Undefined index: id","output":null,"processedTime":"68 ms","memoryUsage":"2.4 MB"}]}</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
-        <is>
-          <t>fail</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="3" s="1">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>test_user_login_password_wrong</t>
-        </is>
-      </c>
-      <c r="B3" s="7" t="inlineStr">
-        <is>
-          <t>http://115.28.108.130:5000/api/user/login/</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>json</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>{"name": "张三","password":"1234567"}</t>
-        </is>
-      </c>
-      <c r="F3" s="3" t="inlineStr">
-        <is>
-          <t>&lt;h1&gt;失败，用户名或密码错误&lt;/h1&gt;</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
@@ -550,13 +542,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" width="22.44140625"/>
     <col bestFit="1" customWidth="1" max="2" min="2" width="39"/>
@@ -566,119 +558,28 @@
   </cols>
   <sheetData>
     <row customFormat="1" customHeight="1" ht="15.6" r="1" s="6">
-      <c r="A1" s="5" t="inlineStr">
-        <is>
-          <t>case_name</t>
-        </is>
-      </c>
-      <c r="B1" s="4" t="inlineStr">
-        <is>
-          <t>url</t>
-        </is>
-      </c>
-      <c r="C1" s="5" t="inlineStr">
-        <is>
-          <t>method</t>
-        </is>
-      </c>
-      <c r="D1" s="5" t="inlineStr">
-        <is>
-          <t>data_type</t>
-        </is>
-      </c>
-      <c r="E1" s="5" t="inlineStr">
-        <is>
-          <t>args</t>
-        </is>
-      </c>
-      <c r="F1" s="5" t="inlineStr">
-        <is>
-          <t>expect_res</t>
-        </is>
-      </c>
-      <c r="G1" s="6" t="inlineStr">
-        <is>
-          <t>result</t>
-        </is>
-      </c>
+      <c r="A1" s="5" t="n"/>
+      <c r="B1" s="4" t="n"/>
+      <c r="C1" s="5" t="n"/>
+      <c r="D1" s="5" t="n"/>
+      <c r="E1" s="5" t="n"/>
+      <c r="F1" s="5" t="n"/>
     </row>
     <row customFormat="1" customHeight="1" ht="124.8" r="2" s="1">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>test_user_reg_normal</t>
-        </is>
-      </c>
-      <c r="B2" s="7" t="inlineStr">
-        <is>
-          <t>http://115.28.108.130:5000/api/user/reg/</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>json</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>{"name": "范冰冰","password":"123456"}</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>{
-  "code": "100000",
-  "msg": "成功",
-  "data": {
-    "name": "范冰冰",
-    "password": "e10adc3949ba59abbe56e057f20f883e"
-  }
-}</t>
-        </is>
-      </c>
+      <c r="A2" s="2" t="n"/>
+      <c r="B2" s="7" t="n"/>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="3" t="n"/>
+      <c r="F2" s="3" t="n"/>
     </row>
     <row customFormat="1" customHeight="1" ht="124.8" r="3" s="1">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>test_user_reg_exist</t>
-        </is>
-      </c>
-      <c r="B3" s="7" t="inlineStr">
-        <is>
-          <t>http://115.28.108.130:5000/api/user/reg/</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>json</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>{"name": "张三","password":"123456"}</t>
-        </is>
-      </c>
-      <c r="F3" s="3" t="inlineStr">
-        <is>
-          <t>{
-  "code": "100001",
-  "msg": "失败，用户已存在",
-  "data": {
-    "name": "张三",
-    "password": "e10adc3949ba59abbe56e057f20f883e"
-  }
-}</t>
-        </is>
-      </c>
+      <c r="A3" s="2" t="n"/>
+      <c r="B3" s="7" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="3" t="n"/>
+      <c r="F3" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
